--- a/Order.xlsx
+++ b/Order.xlsx
@@ -1,65 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deloitte\Prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8952FFF-28E5-401B-82ED-7F8352F4C520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <x:bookViews>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="162913"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>"Microsoft account team" &lt;account-security-noreply@accountprotection.microsoft.com&gt;</t>
-  </si>
-  <si>
-    <t>New app(s) connected to your Microsoft account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UiPath for OneDrive and SharePoint connected to the Microsoft account ku**4@outlook.com.
-If you didn't grant this access, please remove the app(s) from your account.
-Manage your apps https://account.live.com/consent/Manage?fn=email.
-You can also opt out https://account.live.com/SecurityNotifications/Update or change where you receive security notifications.
-Thanks,
-The Microsoft account team 
-Privacy Statement: https://go.microsoft.com/fwlink/?LinkId=521839
-Microsoft Corporation, One Microsoft Way, Redmond, WA 98052
-</t>
-  </si>
-  <si>
-    <t>"DataStax Langflow Team" &lt;hello@datastax.com&gt;</t>
-  </si>
-  <si>
-    <t>Create your first AI app</t>
-  </si>
-  <si>
-    <t>͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:si>
+    <x:t>text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quantity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Google" &lt;no-reply@accounts.google.com&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Security alert</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">[image: Google]
+UiPath GSuite was granted access to your Google account
+kumarshresth2004@gmail.com
+If you did not grant access, you should check this activity and secure your
+account.
+Check activity
+&lt;https://accounts.google.com/AccountChooser?Email=kumarshresth2004@gmail.com&amp;continue=https://myaccount.google.com/alert/nt/1738236659000?rfn%3D127%26rfnc%3D1%26eid%3D-2749831254662170800%26et%3D0&gt;
+You can also see security activity at
+https://myaccount.google.com/notifications
+You received this email to let you know about important changes to your
+Google Account and services.
+© 2025 Google LLC, 1600 Amphitheatre Parkway, Mountain View, CA 94043, USA
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"DataStax Langflow Team" &lt;hello@datastax.com&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Create your first AI app</x:t>
+  </x:si>
+  <x:si>
+    <x:t>͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏
  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏ ­ ­ ­ ­ ­ ­
 ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­  
 DATASTAX ( https://www.datastax.com/?utm_campaign=onboarding-langflow&amp;utm_content=create-app&amp;utm_medium=email&amp;utm_source=customer.io )
@@ -77,72 +82,81 @@
 Copyright 2025 DataStax. All rights reserved. Privacy policy ( https://www.datastax.com/legal/datastax-website-privacy-policy?utm_campaign=onboarding-langflow&amp;utm_content=create-app&amp;utm_medium=email&amp;utm_source=customer.io )
 DataStax Worldwide HQ is located at 2755 Augustine Drive, Santa Clara, CA 95054, United States ( https://www.datastax.com/contact-us?utm_campaign=onboarding-langflow&amp;utm_content=create-app&amp;utm_medium=email&amp;utm_source=customer.io ) VAT AB123456789
 This email was sent to kumarshresth2004@gmail.com. If you no longer wish to receive these emails you may unsubscribe ( http://track.customer.io/unsubscribe/dgTQ1wUBAMGaV8CaVwGUsEIE0978x-2HjQLIw-w= ) at any time.
-Logo DataStax ( https://datastax.com?utm_campaign=onboarding-langflow&amp;utm_content=create-app&amp;utm_medium=email&amp;utm_source=customer.io )</t>
-  </si>
-  <si>
-    <t>"Kumar Shresth" &lt;kumarshresth2004@gmail.com&gt;</t>
-  </si>
-  <si>
-    <t>Test123</t>
-  </si>
-  <si>
-    <t>This is a test email</t>
-  </si>
-</sst>
+Logo DataStax ( https://datastax.com?utm_campaign=onboarding-langflow&amp;utm_content=create-app&amp;utm_medium=email&amp;utm_source=customer.io )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Kumar Shresth" &lt;kumarshresth2004@gmail.com&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>This is a test email</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </x:cellStyleXfs>
+  <x:cellXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <x:alignment wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,65 +421,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="53" customWidth="1"/>
-    <col min="2" max="2" width="56.77734375" customWidth="1"/>
-    <col min="3" max="3" width="45.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:E4"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="D3" sqref="D3"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:cols>
+    <x:col min="1" max="1" width="53" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="56.777344" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="45.554688" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/Order.xlsx
+++ b/Order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deloitte\Prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8952FFF-28E5-401B-82ED-7F8352F4C520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50BC4E6-0485-428F-9F2E-DB3D6A60B5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -31,67 +31,15 @@
     <x:t>text</x:t>
   </x:si>
   <x:si>
-    <x:t>Quantity</x:t>
+    <x:t>"Union Bank of India" &lt;noreplyunionbank@unionbankofindia.com&gt;</x:t>
   </x:si>
   <x:si>
-    <x:t>Status</x:t>
+    <x:t>Quarterly Statement for October 2024</x:t>
   </x:si>
   <x:si>
-    <x:t>"Google" &lt;no-reply@accounts.google.com&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Security alert</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">[image: Google]
-UiPath GSuite was granted access to your Google account
-kumarshresth2004@gmail.com
-If you did not grant access, you should check this activity and secure your
-account.
-Check activity
-&lt;https://accounts.google.com/AccountChooser?Email=kumarshresth2004@gmail.com&amp;continue=https://myaccount.google.com/alert/nt/1738236659000?rfn%3D127%26rfnc%3D1%26eid%3D-2749831254662170800%26et%3D0&gt;
-You can also see security activity at
-https://myaccount.google.com/notifications
-You received this email to let you know about important changes to your
-Google Account and services.
-© 2025 Google LLC, 1600 Amphitheatre Parkway, Mountain View, CA 94043, USA
+    <x:t xml:space="preserve">&lt;p style="margin:0cm;font-family:Calibri,sans-serif;font-size:12px"&gt;Dear Customer,&lt;/p&gt;&lt;p style="margin:0cm"&gt;&amp;nbsp;&lt;/p&gt;&lt;p style="margin:0cm;font-family:Calibri,sans-serif;font-size:12px"&gt;&lt;b&gt;Greetings from Union Bank!!&lt;/b&gt;&lt;/p&gt;&lt;p style="margin:0cm"&gt;&amp;nbsp;&lt;/p&gt;&lt;p style="margin:0cm;font-family:Calibri,sans-serif;font-size:12px"&gt;To extend convenient and hassle-free banking services to you, we are enclosing a copy of your loan account statement for the Quarter ending October 2024 in password protected PDF format.&lt;/p&gt;&lt;p style="margin:0cm"&gt;&amp;nbsp;&lt;/p&gt;&lt;p style="margin:0cm;font-family:Calibri,sans-serif;font-size:12px"&gt;The attached file is encrypted for security reasons and the password to open the attached file is first four characters of your name in uppercase followed by Date/Month (DDMM) of your birth. In case, if the combination of first name and last name is less than four characters, please add 0(zeroes) to make it four characters.&lt;/p&gt;&lt;p style="margin:0cm"&gt;&amp;nbsp;&lt;/p&gt;&lt;p style="margin:0cm;font-family:Calibri,sans-serif;font-size:12px"&gt;This is an authenticated statement. You are requested to immediately notify the bank of discrepancy, if any, in the statement.&lt;/p&gt;&lt;p style="margin:0cm"&gt;&amp;nbsp;&lt;/p&gt;&lt;p style="margin:0cm;font-family:Calibri,sans-serif;font-size:12px"&gt;We thank you for banking with Union Bank of India. Looking forward for more opportunities to serve you. Stay safe &amp; stay healthy!!&lt;/p&gt;&lt;p style="margin:0cm"&gt;&amp;nbsp;&lt;/p&gt;&lt;p style="margin:0cm"&gt;&amp;nbsp;&lt;/p&gt;&lt;p style="margin:0cm;font-family:Calibri,sans-serif;font-size:12px"&gt;Regards&lt;/p&gt;&lt;p style="margin:0cm;font-family:Calibri,sans-serif;font-size:12px"&gt;Union Bank of India&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;br&gt;&lt;/p&gt;&lt;img src='http://delivery.unionbankofindia.com/MEGVYX?id=58309=KRpRVFABBVNaThgXQkNCF0UURUZFRUURREUWGRdBE0ZGRkFERRkWQ0MSGBdCQ0IXRQQZDRAIBEMXDURcRBVbVFZWVSQCVFcKDxxbWA8fUwBWDFRRUFFVCFVXBQgFUwMaDhIVFF8WGQcGXlFBBxEbGRBaDAkLBwRfDwpQUFkFWgdIBQ4JSnRzJDVrYAgLBx5BVg==' /&gt;
 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>"DataStax Langflow Team" &lt;hello@datastax.com&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Create your first AI app</x:t>
-  </x:si>
-  <x:si>
-    <x:t>͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏
- ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏  ͏ ­ ­ ­ ­ ­ ­
-­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­ ­  
-DATASTAX ( https://www.datastax.com/?utm_campaign=onboarding-langflow&amp;utm_content=create-app&amp;utm_medium=email&amp;utm_source=customer.io )
-Hi Kumar,
-Your first few minutes with Langflow will unlock a world of possibilities. Langflow gives you dozens of starter projects ( https://docs.langflow.org/starter-projects-basic-prompting?utm_campaign=onboarding-langflow&amp;utm_content=create-app&amp;utm_medium=email&amp;utm_source=customer.io ) for just about any kind of AI use case or technique you can imagine.
-Quickly choose between simple chatbots ( https://docs.langflow.org/starter-projects-blog-writer?utm_campaign=onboarding-langflow&amp;utm_content=create-app&amp;utm_medium=email&amp;utm_source=customer.io ), basic or advanced RAG ( https://docs.langflow.org/starter-projects-document-qa?utm_campaign=onboarding-langflow&amp;utm_content=create-app&amp;utm_medium=email&amp;utm_source=customer.io ) (retrieval augmented generation) techniques, or powerful multi-agent apps ( https://docs.langflow.org/starter-projects-simple-agent?utm_campaign=onboarding-langflow&amp;utm_content=create-app&amp;utm_medium=email&amp;utm_source=customer.io ). Just add an API key, modify prompts, and run in the playground for instant results!
-Try it now ( https://docs.langflow.org/starter-projects-basic-prompting?utm_campaign=onboarding-langflow&amp;utm_content=create-app&amp;utm_medium=email&amp;utm_source=customer.io )
-Cheers,
-Your friends at DataStax
-Youtube ( https://www.youtube.com/@DataStaxDevs?utm_campaign=onboarding-langflow&amp;utm_content=create-app&amp;utm_medium=email&amp;utm_source=customer.io )
-X ( https://twitter.com/datastax?utm_campaign=onboarding-langflow&amp;utm_content=create-app&amp;utm_medium=email&amp;utm_source=customer.io )
-Bluesky ( https://bsky.app/profile/datastax.com?utm_campaign=onboarding-langflow&amp;utm_content=create-app&amp;utm_medium=email&amp;utm_source=customer.io )
-Linkedin ( https://www.linkedin.com/company/datastax/?utm_campaign=onboarding-langflow&amp;utm_content=create-app&amp;utm_medium=email&amp;utm_source=customer.io )
-Github ( https://github.com/datastax/?utm_campaign=onboarding-langflow&amp;utm_content=create-app&amp;utm_medium=email&amp;utm_source=customer.io )
-Copyright 2025 DataStax. All rights reserved. Privacy policy ( https://www.datastax.com/legal/datastax-website-privacy-policy?utm_campaign=onboarding-langflow&amp;utm_content=create-app&amp;utm_medium=email&amp;utm_source=customer.io )
-DataStax Worldwide HQ is located at 2755 Augustine Drive, Santa Clara, CA 95054, United States ( https://www.datastax.com/contact-us?utm_campaign=onboarding-langflow&amp;utm_content=create-app&amp;utm_medium=email&amp;utm_source=customer.io ) VAT AB123456789
-This email was sent to kumarshresth2004@gmail.com. If you no longer wish to receive these emails you may unsubscribe ( http://track.customer.io/unsubscribe/dgTQ1wUBAMGaV8CaVwGUsEIE0978x-2HjQLIw-w= ) at any time.
-Logo DataStax ( https://datastax.com?utm_campaign=onboarding-langflow&amp;utm_content=create-app&amp;utm_medium=email&amp;utm_source=customer.io )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Kumar Shresth" &lt;kumarshresth2004@gmail.com&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is a test email</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -137,12 +85,11 @@
   <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,10 +372,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E4"/>
+  <x:dimension ref="C2:C3"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="D3" sqref="D3"/>
+      <x:selection activeCell="C2" sqref="C2 A1:E4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,49 +385,24 @@
     <x:col min="3" max="3" width="45.554688" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
+    </x:row>
+    <x:row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E1" s="0" t="s">
+      <x:c r="B2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A2" s="0" t="s">
+      <x:c r="C2" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
     </x:row>
-    <x:row r="3" spans="1:5" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A3" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A4" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
+    <x:row r="3" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="C3" s="1"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
